--- a/test_data/orange_data.xlsx
+++ b/test_data/orange_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mine\Company\CGI Sep 2024\automation_workspace\HRManagementAutomation\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9515F333-2088-4BE2-85D1-28F440D5C949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D11F82-56EE-443B-A4F4-FF806241113C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1116" yWindow="1128" windowWidth="17268" windowHeight="8856" activeTab="2" xr2:uid="{6F237831-FA58-4B15-AD1F-156DBC0664AB}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -53,18 +53,9 @@
     <t>Expected Error</t>
   </si>
   <si>
-    <t>Mark</t>
-  </si>
-  <si>
     <t>Invalid credentials</t>
   </si>
   <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>kevin123</t>
-  </si>
-  <si>
     <t>Usernam</t>
   </si>
   <si>
@@ -78,6 +69,12 @@
   </si>
   <si>
     <t>Quick Launch</t>
+  </si>
+  <si>
+    <t>peter</t>
+  </si>
+  <si>
+    <t>mark</t>
   </si>
 </sst>
 </file>
@@ -482,7 +479,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,24 +500,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>4444</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>4445</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -544,24 +541,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
